--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/08,25/08,08,25 ПОКОМ ЗПФ Сочи/дв 08,08,25 счрсч пок зпф от филиала.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/08,25/08,08,25 ПОКОМ ЗПФ Сочи/дв 08,08,25 счрсч пок зпф от филиала.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\08,25\08,08,25 ПОКОМ ЗПФ Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC4006-7CA8-494C-B702-3F6D06F68B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E30DB6A-6C9B-4BEC-A3FD-0BA6C5AAB29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,20 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AO$67</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="132">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -511,6 +503,9 @@
   </si>
   <si>
     <t>итого</t>
+  </si>
+  <si>
+    <t>16,08,</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1002,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1335,9 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
       <c r="AJ4" s="7"/>
-      <c r="AK4" s="9"/>
+      <c r="AK4" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="AL4" s="24"/>
       <c r="AM4" s="24"/>
       <c r="AN4" s="24"/>
@@ -2871,8 +2868,8 @@
       <c r="AG17" s="24">
         <v>5.8</v>
       </c>
-      <c r="AH17" s="17" t="s">
-        <v>123</v>
+      <c r="AH17" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="AI17" s="24">
         <f t="shared" si="7"/>

--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/08,25/08,08,25 ПОКОМ ЗПФ Сочи/дв 08,08,25 счрсч пок зпф от филиала.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/08,25/08,08,25 ПОКОМ ЗПФ Сочи/дв 08,08,25 счрсч пок зпф от филиала.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\08,25\08,08,25 ПОКОМ ЗПФ Сочи\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\08,25\08,08,25 ПОКОМ ЗПФ Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E30DB6A-6C9B-4BEC-A3FD-0BA6C5AAB29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400AE283-012F-495F-80B2-C311B5FC41E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AO$67</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1002,7 +1010,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
